--- a/Iuk_III_U_addressplann.xlsx
+++ b/Iuk_III_U_addressplann.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
   <si>
     <t>R1</t>
   </si>
@@ -81,9 +81,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>G0/21</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -283,6 +280,51 @@
   </si>
   <si>
     <t>2001:620:3101:1044::2/64</t>
+  </si>
+  <si>
+    <t>Link-local</t>
+  </si>
+  <si>
+    <t>FE80::1</t>
+  </si>
+  <si>
+    <t>FE80::2</t>
+  </si>
+  <si>
+    <t>FE80::3</t>
+  </si>
+  <si>
+    <t>FE80::4</t>
+  </si>
+  <si>
+    <t>FE80::5</t>
+  </si>
+  <si>
+    <t>G1/0/21</t>
+  </si>
+  <si>
+    <t>G1/0/22</t>
+  </si>
+  <si>
+    <t>G1/0/23</t>
+  </si>
+  <si>
+    <t>G1/0/24</t>
+  </si>
+  <si>
+    <t>G2/0/21</t>
+  </si>
+  <si>
+    <t>G2/0/22</t>
+  </si>
+  <si>
+    <t>G2/0/23</t>
+  </si>
+  <si>
+    <t>G2/0/24</t>
+  </si>
+  <si>
+    <t>FE80::6</t>
   </si>
 </sst>
 </file>
@@ -753,38 +795,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -792,55 +838,58 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,109 +897,112 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
@@ -958,91 +1010,94 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1050,91 +1105,94 @@
         <v>9</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1142,203 +1200,212 @@
         <v>15</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="12" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="6" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="11" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>3</v>
@@ -1346,20 +1413,21 @@
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
@@ -1367,20 +1435,21 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>3</v>
@@ -1389,10 +1458,11 @@
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>3</v>
@@ -1401,44 +1471,47 @@
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="C40" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E41" s="16"/>
       <c r="F41" s="16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Iuk_III_U_addressplann.xlsx
+++ b/Iuk_III_U_addressplann.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="105">
   <si>
     <t>R1</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>FE80::6</t>
+  </si>
+  <si>
+    <t>Po4</t>
+  </si>
+  <si>
+    <t>g0/22</t>
   </si>
 </sst>
 </file>
@@ -340,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +371,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -470,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -491,6 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -795,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,7 +1337,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="20" t="s">
         <v>96</v>
       </c>
       <c r="C28" s="6"/>
@@ -1335,7 +1348,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C29" s="1"/>
@@ -1382,7 +1395,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C32" s="6"/>
@@ -1391,9 +1404,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C33" s="1"/>
@@ -1403,7 +1416,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -1415,7 +1428,7 @@
       <c r="E34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
@@ -1425,7 +1438,7 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>24</v>
       </c>
@@ -1436,8 +1449,11 @@
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="1" t="s">
         <v>23</v>
@@ -1447,7 +1463,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>25</v>
       </c>
@@ -1460,7 +1476,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>26</v>
       </c>
@@ -1473,7 +1489,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
         <v>60</v>
       </c>
@@ -1492,7 +1508,7 @@
       </c>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="16" t="s">
         <v>62</v>
@@ -1509,9 +1525,14 @@
       </c>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Iuk_III_U_addressplann.xlsx
+++ b/Iuk_III_U_addressplann.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="113">
   <si>
     <t>R1</t>
   </si>
@@ -186,18 +186,9 @@
     <t>10.1.40.10</t>
   </si>
   <si>
-    <t>10.1.40.16</t>
-  </si>
-  <si>
     <t>10.1.40.17</t>
   </si>
   <si>
-    <t>10.1.40.24</t>
-  </si>
-  <si>
-    <t>10.1.40.25</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -273,9 +264,6 @@
     <t>2001:620:3101:1043::1/64</t>
   </si>
   <si>
-    <t>Po3</t>
-  </si>
-  <si>
     <t>2001:620:3101:1044::1/64</t>
   </si>
   <si>
@@ -331,6 +319,42 @@
   </si>
   <si>
     <t>g0/22</t>
+  </si>
+  <si>
+    <t>10.1.40.13</t>
+  </si>
+  <si>
+    <t>10.1.40.14</t>
+  </si>
+  <si>
+    <t>10.1.40.18</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>2001:620:3101:1199::1/64</t>
+  </si>
+  <si>
+    <t>10.1.99.10</t>
+  </si>
+  <si>
+    <t>10.1.99.20</t>
+  </si>
+  <si>
+    <t>10.2.99.10</t>
+  </si>
+  <si>
+    <t>2001:620:3101:2199::1/64</t>
+  </si>
+  <si>
+    <t>2001:620:3101:3199::1/64</t>
+  </si>
+  <si>
+    <t>10.3.99.10</t>
+  </si>
+  <si>
+    <t>Po5</t>
   </si>
 </sst>
 </file>
@@ -378,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -401,21 +425,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -469,41 +478,36 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="medium">
         <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -808,15 +812,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
@@ -836,11 +841,11 @@
       <c r="E1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>88</v>
+      <c r="F1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,10 +865,10 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -881,7 +886,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -899,7 +904,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -919,10 +924,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,7 +945,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -957,8 +962,8 @@
       <c r="E7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>73</v>
+      <c r="F7" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,8 +980,8 @@
       <c r="E8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>74</v>
+      <c r="F8" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -993,8 +998,8 @@
       <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>75</v>
+      <c r="F9" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1011,8 +1016,8 @@
       <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>76</v>
+      <c r="F10" s="12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,10 +1037,10 @@
         <v>44</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1053,7 +1058,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,7 +1076,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,7 +1094,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1107,48 +1112,48 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>81</v>
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>81</v>
+      <c r="D17" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1166,84 +1171,84 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>84</v>
+      <c r="D21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>84</v>
+      <c r="C22" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1261,75 +1266,75 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>87</v>
+      <c r="C24" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>87</v>
+      <c r="C25" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>102</v>
+      <c r="B26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>63</v>
+      <c r="B27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>44</v>
@@ -1337,8 +1342,8 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="20" t="s">
-        <v>96</v>
+      <c r="B28" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -1348,8 +1353,8 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="18" t="s">
-        <v>97</v>
+      <c r="B29" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1362,32 +1367,32 @@
       <c r="A30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>63</v>
+      <c r="B31" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>44</v>
@@ -1395,8 +1400,8 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="18" t="s">
-        <v>100</v>
+      <c r="B32" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -1406,8 +1411,8 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="20" t="s">
-        <v>101</v>
+      <c r="B33" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1428,111 +1433,181 @@
       <c r="E34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="K36" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="K37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="C39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
-      <c r="B41" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="16" t="s">
+      <c r="B41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
-        <v>103</v>
+      <c r="D45" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Iuk_III_U_addressplann.xlsx
+++ b/Iuk_III_U_addressplann.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="15990"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId5"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
   <si>
     <t>Port</t>
   </si>
@@ -355,28 +358,21 @@
   </si>
   <si>
     <t>Po3</t>
+  </si>
+  <si>
+    <t>lo 0</t>
+  </si>
+  <si>
+    <t>10.1.0.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -425,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -846,225 +842,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="64">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ff92d050"/>
-      <rgbColor rgb="ff7891b0"/>
-      <rgbColor rgb="ff515151"/>
-      <rgbColor rgb="ffd99594"/>
-      <rgbColor rgb="fff79646"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF92D050"/>
+      <rgbColor rgb="FF7891B0"/>
+      <rgbColor rgb="FF515151"/>
+      <rgbColor rgb="FFD99594"/>
+      <rgbColor rgb="FFF79646"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
     <a:clrScheme name="Larissa">
       <a:dk1>
@@ -1190,7 +1159,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1199,7 +1168,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1208,7 +1177,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1282,7 +1251,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1290,7 +1259,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1309,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1339,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1365,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1391,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1443,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1469,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1495,7 +1464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1521,7 +1490,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1547,7 +1516,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1560,9 +1529,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1577,7 +1552,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -1585,7 +1560,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1604,7 +1579,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1630,7 +1605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1656,7 +1631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1682,7 +1657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1708,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1734,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1760,7 +1735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1786,7 +1761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1812,7 +1787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1838,7 +1813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1851,9 +1826,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1867,7 +1848,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1886,7 +1867,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1916,7 +1897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1942,7 +1923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1968,7 +1949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1994,7 +1975,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2020,7 +2001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2046,7 +2027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2072,7 +2053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2098,7 +2079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2124,7 +2105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2137,56 +2118,60 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.8516" style="1" customWidth="1"/>
-    <col min="12" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="5">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6"/>
@@ -2194,26 +2179,26 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" ht="15.5" customHeight="1">
-      <c r="A2" t="s" s="7">
+    <row r="2" spans="1:256" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="9">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="9">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="9">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="9">
+      <c r="F2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="6"/>
@@ -2221,21 +2206,21 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" t="s" s="11">
+      <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="6"/>
@@ -2244,95 +2229,336 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s" s="4">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s" s="4">
+    <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="G4" s="13"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-    </row>
-    <row r="5" ht="15.5" customHeight="1">
-      <c r="A5" t="s" s="7">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s" s="9">
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="59"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="59"/>
+      <c r="BQ4" s="59"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="59"/>
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="59"/>
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="59"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="59"/>
+      <c r="CB4" s="59"/>
+      <c r="CC4" s="59"/>
+      <c r="CD4" s="59"/>
+      <c r="CE4" s="59"/>
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="59"/>
+      <c r="CI4" s="59"/>
+      <c r="CJ4" s="59"/>
+      <c r="CK4" s="59"/>
+      <c r="CL4" s="59"/>
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="59"/>
+      <c r="CO4" s="59"/>
+      <c r="CP4" s="59"/>
+      <c r="CQ4" s="59"/>
+      <c r="CR4" s="59"/>
+      <c r="CS4" s="59"/>
+      <c r="CT4" s="59"/>
+      <c r="CU4" s="59"/>
+      <c r="CV4" s="59"/>
+      <c r="CW4" s="59"/>
+      <c r="CX4" s="59"/>
+      <c r="CY4" s="59"/>
+      <c r="CZ4" s="59"/>
+      <c r="DA4" s="59"/>
+      <c r="DB4" s="59"/>
+      <c r="DC4" s="59"/>
+      <c r="DD4" s="59"/>
+      <c r="DE4" s="59"/>
+      <c r="DF4" s="59"/>
+      <c r="DG4" s="59"/>
+      <c r="DH4" s="59"/>
+      <c r="DI4" s="59"/>
+      <c r="DJ4" s="59"/>
+      <c r="DK4" s="59"/>
+      <c r="DL4" s="59"/>
+      <c r="DM4" s="59"/>
+      <c r="DN4" s="59"/>
+      <c r="DO4" s="59"/>
+      <c r="DP4" s="59"/>
+      <c r="DQ4" s="59"/>
+      <c r="DR4" s="59"/>
+      <c r="DS4" s="59"/>
+      <c r="DT4" s="59"/>
+      <c r="DU4" s="59"/>
+      <c r="DV4" s="59"/>
+      <c r="DW4" s="59"/>
+      <c r="DX4" s="59"/>
+      <c r="DY4" s="59"/>
+      <c r="DZ4" s="59"/>
+      <c r="EA4" s="59"/>
+      <c r="EB4" s="59"/>
+      <c r="EC4" s="59"/>
+      <c r="ED4" s="59"/>
+      <c r="EE4" s="59"/>
+      <c r="EF4" s="59"/>
+      <c r="EG4" s="59"/>
+      <c r="EH4" s="59"/>
+      <c r="EI4" s="59"/>
+      <c r="EJ4" s="59"/>
+      <c r="EK4" s="59"/>
+      <c r="EL4" s="59"/>
+      <c r="EM4" s="59"/>
+      <c r="EN4" s="59"/>
+      <c r="EO4" s="59"/>
+      <c r="EP4" s="59"/>
+      <c r="EQ4" s="59"/>
+      <c r="ER4" s="59"/>
+      <c r="ES4" s="59"/>
+      <c r="ET4" s="59"/>
+      <c r="EU4" s="59"/>
+      <c r="EV4" s="59"/>
+      <c r="EW4" s="59"/>
+      <c r="EX4" s="59"/>
+      <c r="EY4" s="59"/>
+      <c r="EZ4" s="59"/>
+      <c r="FA4" s="59"/>
+      <c r="FB4" s="59"/>
+      <c r="FC4" s="59"/>
+      <c r="FD4" s="59"/>
+      <c r="FE4" s="59"/>
+      <c r="FF4" s="59"/>
+      <c r="FG4" s="59"/>
+      <c r="FH4" s="59"/>
+      <c r="FI4" s="59"/>
+      <c r="FJ4" s="59"/>
+      <c r="FK4" s="59"/>
+      <c r="FL4" s="59"/>
+      <c r="FM4" s="59"/>
+      <c r="FN4" s="59"/>
+      <c r="FO4" s="59"/>
+      <c r="FP4" s="59"/>
+      <c r="FQ4" s="59"/>
+      <c r="FR4" s="59"/>
+      <c r="FS4" s="59"/>
+      <c r="FT4" s="59"/>
+      <c r="FU4" s="59"/>
+      <c r="FV4" s="59"/>
+      <c r="FW4" s="59"/>
+      <c r="FX4" s="59"/>
+      <c r="FY4" s="59"/>
+      <c r="FZ4" s="59"/>
+      <c r="GA4" s="59"/>
+      <c r="GB4" s="59"/>
+      <c r="GC4" s="59"/>
+      <c r="GD4" s="59"/>
+      <c r="GE4" s="59"/>
+      <c r="GF4" s="59"/>
+      <c r="GG4" s="59"/>
+      <c r="GH4" s="59"/>
+      <c r="GI4" s="59"/>
+      <c r="GJ4" s="59"/>
+      <c r="GK4" s="59"/>
+      <c r="GL4" s="59"/>
+      <c r="GM4" s="59"/>
+      <c r="GN4" s="59"/>
+      <c r="GO4" s="59"/>
+      <c r="GP4" s="59"/>
+      <c r="GQ4" s="59"/>
+      <c r="GR4" s="59"/>
+      <c r="GS4" s="59"/>
+      <c r="GT4" s="59"/>
+      <c r="GU4" s="59"/>
+      <c r="GV4" s="59"/>
+      <c r="GW4" s="59"/>
+      <c r="GX4" s="59"/>
+      <c r="GY4" s="59"/>
+      <c r="GZ4" s="59"/>
+      <c r="HA4" s="59"/>
+      <c r="HB4" s="59"/>
+      <c r="HC4" s="59"/>
+      <c r="HD4" s="59"/>
+      <c r="HE4" s="59"/>
+      <c r="HF4" s="59"/>
+      <c r="HG4" s="59"/>
+      <c r="HH4" s="59"/>
+      <c r="HI4" s="59"/>
+      <c r="HJ4" s="59"/>
+      <c r="HK4" s="59"/>
+      <c r="HL4" s="59"/>
+      <c r="HM4" s="59"/>
+      <c r="HN4" s="59"/>
+      <c r="HO4" s="59"/>
+      <c r="HP4" s="59"/>
+      <c r="HQ4" s="59"/>
+      <c r="HR4" s="59"/>
+      <c r="HS4" s="59"/>
+      <c r="HT4" s="59"/>
+      <c r="HU4" s="59"/>
+      <c r="HV4" s="59"/>
+      <c r="HW4" s="59"/>
+      <c r="HX4" s="59"/>
+      <c r="HY4" s="59"/>
+      <c r="HZ4" s="59"/>
+      <c r="IA4" s="59"/>
+      <c r="IB4" s="59"/>
+      <c r="IC4" s="59"/>
+      <c r="ID4" s="59"/>
+      <c r="IE4" s="59"/>
+      <c r="IF4" s="59"/>
+      <c r="IG4" s="59"/>
+      <c r="IH4" s="59"/>
+      <c r="II4" s="59"/>
+      <c r="IJ4" s="59"/>
+      <c r="IK4" s="59"/>
+      <c r="IL4" s="59"/>
+      <c r="IM4" s="59"/>
+      <c r="IN4" s="59"/>
+      <c r="IO4" s="59"/>
+      <c r="IP4" s="59"/>
+      <c r="IQ4" s="59"/>
+      <c r="IR4" s="59"/>
+      <c r="IS4" s="59"/>
+      <c r="IT4" s="59"/>
+      <c r="IU4" s="59"/>
+      <c r="IV4" s="59"/>
+    </row>
+    <row r="5" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="9">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s" s="9">
-        <v>23</v>
-      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" t="s" s="11">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s" s="5">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s" s="5">
+    <row r="6" spans="1:256" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s" s="5">
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="5">
-        <v>26</v>
-      </c>
-      <c r="G6" s="6"/>
+      <c r="F6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s" s="5">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s" s="5">
+      <c r="B7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s" s="5">
-        <v>30</v>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -2340,22 +2566,22 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s" s="5">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s" s="5">
+      <c r="B8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s" s="5">
+      <c r="E8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="5">
-        <v>33</v>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2363,22 +2589,22 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s" s="5">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s" s="5">
+      <c r="B9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s" s="5">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s" s="5">
-        <v>36</v>
+      <c r="F9" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2386,95 +2612,95 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="D10" t="s" s="4">
+    <row r="10" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s" s="4">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="4">
-        <v>39</v>
-      </c>
-      <c r="G10" s="13"/>
+      <c r="F10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" ht="15.5" customHeight="1">
-      <c r="A11" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s" s="9">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s" s="9">
+    <row r="11" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s" s="9">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s" s="9">
-        <v>43</v>
-      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" t="s" s="11">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s" s="5">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s" s="5">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s" s="5">
+    <row r="12" spans="1:256" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="5">
-        <v>45</v>
-      </c>
-      <c r="G12" s="6"/>
+      <c r="F12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" t="s" s="11">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s" s="5">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s" s="5">
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s" s="5">
+      <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s" s="5">
-        <v>47</v>
+      <c r="F13" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -2482,22 +2708,22 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" t="s" s="11">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s" s="5">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s" s="5">
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s" s="5">
+      <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="5">
-        <v>49</v>
+      <c r="F14" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2505,321 +2731,327 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" t="s" s="3">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s" s="4">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s" s="4">
+    <row r="15" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s" s="4">
+      <c r="E15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F15" t="s" s="4">
-        <v>51</v>
-      </c>
-      <c r="G15" s="13"/>
+      <c r="F15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" ht="15.5" customHeight="1">
-      <c r="A16" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s" s="14">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s" s="15">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s" s="15">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s" s="15">
+    <row r="16" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F16" t="s" s="15">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s" s="16">
-        <v>56</v>
-      </c>
+      <c r="F16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="13"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" t="s" s="17">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s" s="18">
+    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s" s="18">
+      <c r="D17" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E17" t="s" s="18">
+      <c r="E17" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="18">
+      <c r="F17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" t="s" s="20">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s" s="21">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s" s="21">
+      <c r="B18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E18" t="s" s="21">
+      <c r="E18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="s" s="21">
-        <v>60</v>
-      </c>
-      <c r="G18" s="6"/>
+      <c r="F18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="19"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" t="s" s="22">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s" s="23">
-        <v>62</v>
-      </c>
-      <c r="D19" t="s" s="23">
+      <c r="B19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="23">
+      <c r="E19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s" s="23">
-        <v>63</v>
-      </c>
-      <c r="G19" s="19"/>
+      <c r="F19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" t="s" s="24">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s" s="25">
+      <c r="B20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s" s="25">
+      <c r="D20" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E20" t="s" s="25">
+      <c r="E20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F20" t="s" s="25">
+      <c r="F20" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="26"/>
+      <c r="G20" s="19"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" ht="15.5" customHeight="1">
-      <c r="A21" t="s" s="27">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s" s="28">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s" s="29">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s" s="29">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E21" t="s" s="29">
+      <c r="E21" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s" s="29">
-        <v>68</v>
-      </c>
-      <c r="G21" t="s" s="16">
-        <v>69</v>
-      </c>
+      <c r="F21" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="26"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" t="s" s="30">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s" s="31">
+    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D22" t="s" s="31">
+      <c r="D22" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s" s="31">
+      <c r="E22" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F22" t="s" s="31">
+      <c r="F22" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" t="s" s="20">
-        <v>71</v>
-      </c>
-      <c r="C23" t="s" s="21">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s" s="21">
+      <c r="B23" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E23" t="s" s="21">
+      <c r="E23" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F23" t="s" s="21">
-        <v>73</v>
-      </c>
-      <c r="G23" s="6"/>
+      <c r="F23" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="19"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" t="s" s="22">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s" s="23">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s" s="23">
+      <c r="B24" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E24" t="s" s="23">
+      <c r="E24" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="23">
-        <v>76</v>
-      </c>
-      <c r="G24" s="19"/>
+      <c r="F24" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" t="s" s="32">
-        <v>77</v>
-      </c>
-      <c r="C25" t="s" s="33">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D25" t="s" s="33">
+      <c r="D25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s" s="33">
+      <c r="E25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F25" t="s" s="33">
+      <c r="F25" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="34"/>
+      <c r="G25" s="19"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="B26" t="s" s="35">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s" s="36">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s" s="37">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s" s="37">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" t="s" s="37">
-        <v>81</v>
-      </c>
+      <c r="F26" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="10"/>
-      <c r="B27" t="s" s="30">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s" s="39">
+    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D27" t="s" s="5">
+      <c r="D27" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E27" t="s" s="5">
+      <c r="E27" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="37" t="s">
+        <v>81</v>
+      </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" t="s" s="40">
-        <v>83</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" t="s" s="5">
+      <c r="B28" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="6"/>
@@ -2829,77 +3061,77 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" t="s" s="43">
-        <v>84</v>
-      </c>
-      <c r="C29" s="44"/>
-      <c r="D29" s="45"/>
-      <c r="E29" t="s" s="4">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="45"/>
-      <c r="G29" s="13"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" ht="15.5" customHeight="1">
-      <c r="A30" t="s" s="7">
-        <v>85</v>
-      </c>
-      <c r="B30" t="s" s="28">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s" s="16">
-        <v>80</v>
-      </c>
-      <c r="D30" t="s" s="9">
-        <v>80</v>
-      </c>
-      <c r="E30" t="s" s="9">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" t="s" s="9">
-        <v>81</v>
-      </c>
+      <c r="F30" s="45"/>
+      <c r="G30" s="13"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" t="s" s="17">
-        <v>87</v>
-      </c>
-      <c r="C31" t="s" s="39">
+    <row r="31" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D31" t="s" s="5">
+      <c r="D31" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E31" t="s" s="5">
+      <c r="E31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" t="s" s="47">
-        <v>88</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="42"/>
-      <c r="E32" t="s" s="5">
+      <c r="B32" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="6"/>
@@ -2909,287 +3141,289 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" t="s" s="48">
-        <v>89</v>
-      </c>
-      <c r="C33" s="44"/>
-      <c r="D33" s="45"/>
-      <c r="E33" t="s" s="4">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="13"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" ht="15.5" customHeight="1">
-      <c r="A34" t="s" s="7">
-        <v>90</v>
-      </c>
-      <c r="B34" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="49"/>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="45"/>
+      <c r="G34" s="13"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" t="s" s="11">
-        <v>91</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="6"/>
+    <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="49"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s" s="4">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="E36" s="45"/>
-      <c r="F36" t="s" s="4">
-        <v>94</v>
-      </c>
-      <c r="G36" s="45"/>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" ht="15.5" customHeight="1">
-      <c r="A37" t="s" s="7">
-        <v>95</v>
-      </c>
-      <c r="B37" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="49"/>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="45"/>
+      <c r="F37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="45"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
-      <c r="K37" t="s" s="5">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="10"/>
-      <c r="B38" t="s" s="11">
-        <v>91</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="6"/>
+      <c r="K37" s="6"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="49"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2"/>
-      <c r="B39" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="C39" t="s" s="4">
-        <v>97</v>
-      </c>
-      <c r="D39" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
+      <c r="K38" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" ht="15.5" customHeight="1">
-      <c r="A40" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="B40" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2"/>
-      <c r="B41" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="C41" t="s" s="4">
-        <v>99</v>
-      </c>
-      <c r="D41" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="E41" s="45"/>
-      <c r="F41" t="s" s="4">
-        <v>100</v>
-      </c>
-      <c r="G41" s="45"/>
+    <row r="41" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" ht="15.5" customHeight="1">
-      <c r="A42" t="s" s="7">
-        <v>101</v>
-      </c>
-      <c r="B42" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="45"/>
+      <c r="F42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="45"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2"/>
-      <c r="B43" t="s" s="3">
-        <v>92</v>
-      </c>
-      <c r="C43" t="s" s="4">
-        <v>102</v>
-      </c>
-      <c r="D43" t="s" s="4">
-        <v>29</v>
-      </c>
-      <c r="E43" s="45"/>
-      <c r="F43" t="s" s="4">
-        <v>103</v>
-      </c>
-      <c r="G43" s="45"/>
+    <row r="43" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="B44" t="s" s="28">
-        <v>105</v>
-      </c>
-      <c r="C44" t="s" s="29">
-        <v>106</v>
-      </c>
-      <c r="D44" t="s" s="29">
-        <v>9</v>
-      </c>
-      <c r="E44" t="s" s="29">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s" s="29">
-        <v>107</v>
-      </c>
-      <c r="G44" s="50"/>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="45"/>
+      <c r="F44" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" s="45"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" ht="15.5" customHeight="1">
-      <c r="A45" s="51"/>
-      <c r="B45" t="s" s="17">
-        <v>108</v>
-      </c>
-      <c r="C45" t="s" s="18">
-        <v>109</v>
-      </c>
-      <c r="D45" t="s" s="18">
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E45" t="s" s="18">
+      <c r="E45" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F45" t="s" s="18">
-        <v>110</v>
-      </c>
-      <c r="G45" s="52"/>
+      <c r="F45" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" s="50"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="53"/>
-      <c r="B46" t="s" s="54">
-        <v>111</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="6"/>
+    <row r="46" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="G46" s="52"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
-      <c r="B47" t="s" s="23">
-        <v>112</v>
-      </c>
-      <c r="C47" s="19"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="B47" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
-      <c r="B48" t="s" s="57">
-        <v>113</v>
+      <c r="B48" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="6"/>
@@ -3201,9 +3435,24 @@
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
     </row>
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="19"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3211,85 +3460,80 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="58" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="58" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="58" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="58" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="58" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="58" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3297,8 +3541,8 @@
       <c r="E10" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3306,85 +3550,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="59" customWidth="1"/>
-    <col min="2" max="2" width="10.8516" style="59" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="59" customWidth="1"/>
-    <col min="4" max="4" width="10.8516" style="59" customWidth="1"/>
-    <col min="5" max="5" width="10.8516" style="59" customWidth="1"/>
-    <col min="6" max="256" width="10.8516" style="59" customWidth="1"/>
+    <col min="1" max="256" width="10.85546875" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3392,8 +3631,8 @@
       <c r="E10" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.787402" bottom="0.787402" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Iuk_III_U_addressplann.xlsx
+++ b/Iuk_III_U_addressplann.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="119">
   <si>
     <t>Port</t>
   </si>
@@ -300,9 +300,6 @@
     <t>10.1.99.10</t>
   </si>
   <si>
-    <t>2001:620:3101:1199::1/64</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
@@ -318,18 +315,12 @@
     <t>10.2.99.10</t>
   </si>
   <si>
-    <t>2001:620:3101:2199::1/64</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
     <t>10.3.99.10</t>
   </si>
   <si>
-    <t>2001:620:3101:3199::1/64</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -364,17 +355,41 @@
   </si>
   <si>
     <t>10.1.0.1</t>
+  </si>
+  <si>
+    <t>2001:620:3101:1001::1/64</t>
+  </si>
+  <si>
+    <t>2001:620:3101:1099::11/64</t>
+  </si>
+  <si>
+    <t>2001:620:3101:1099::21/64</t>
+  </si>
+  <si>
+    <t>2001:620:3101:2099::11/64</t>
+  </si>
+  <si>
+    <t>2001:620:3101:3099::11/64</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -885,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -950,6 +965,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2139,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2232,16 +2250,18 @@
     <row r="4" spans="1:256" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
       <c r="B4" s="61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D4" s="62" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="F4" s="62" t="s">
+        <v>113</v>
+      </c>
       <c r="G4" s="63"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -2992,7 +3012,7 @@
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12"/>
       <c r="B26" s="32" t="s">
         <v>77</v>
@@ -3013,9 +3033,11 @@
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="64" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>78</v>
       </c>
@@ -3220,7 +3242,7 @@
       </c>
       <c r="E37" s="45"/>
       <c r="F37" s="4" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="G37" s="45"/>
       <c r="H37" s="6"/>
@@ -3230,7 +3252,7 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>16</v>
@@ -3244,7 +3266,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,13 +3290,15 @@
         <v>92</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
+      <c r="F40" s="45" t="s">
+        <v>115</v>
+      </c>
       <c r="G40" s="45"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -3283,7 +3307,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>16</v>
@@ -3304,14 +3328,14 @@
         <v>92</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E42" s="45"/>
       <c r="F42" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G42" s="45"/>
       <c r="H42" s="6"/>
@@ -3321,7 +3345,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>16</v>
@@ -3342,14 +3366,14 @@
         <v>92</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E44" s="45"/>
       <c r="F44" s="4" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G44" s="45"/>
       <c r="H44" s="6"/>
@@ -3359,13 +3383,13 @@
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D45" s="29" t="s">
         <v>9</v>
@@ -3374,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G45" s="50"/>
       <c r="H45" s="6"/>
@@ -3385,10 +3409,10 @@
     <row r="46" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51"/>
       <c r="B46" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>9</v>
@@ -3397,7 +3421,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G46" s="52"/>
       <c r="H46" s="6"/>
@@ -3408,7 +3432,7 @@
     <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C47" s="55"/>
       <c r="D47" s="56"/>
@@ -3423,7 +3447,7 @@
     <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="23" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="6"/>
@@ -3438,7 +3462,7 @@
     <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C49" s="19"/>
       <c r="D49" s="6"/>
@@ -3452,7 +3476,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
